--- a/public-transportation/jakarta-train/data/rekap.xlsx
+++ b/public-transportation/jakarta-train/data/rekap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tombayu Hidayat\Documents\Coding\personal-project\public-transportation\jakarta-train\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C063C3-617D-497D-BE88-D30F64A93AA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D86A89-818F-4482-B739-9046CB199607}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00259625-A11C-4131-A491-869179BC3BC0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="65">
   <si>
     <t>2A</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>Sumber Berita</t>
+  </si>
+  <si>
+    <t>Sumber Data</t>
+  </si>
+  <si>
+    <t>Trafi</t>
+  </si>
+  <si>
+    <t>SSC</t>
   </si>
 </sst>
 </file>
@@ -565,9 +574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF44142-EF6D-4D5F-8C7A-3246BC1A9677}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -578,7 +589,7 @@
     <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -597,8 +608,11 @@
       <c r="F1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -617,8 +631,11 @@
       <c r="F2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -637,8 +654,11 @@
       <c r="F3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -657,8 +677,11 @@
       <c r="F4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -677,8 +700,11 @@
       <c r="F5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -697,8 +723,11 @@
       <c r="F6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -717,8 +746,11 @@
       <c r="F7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -737,8 +769,11 @@
       <c r="F8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -757,8 +792,11 @@
       <c r="F9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -777,8 +815,11 @@
       <c r="F10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -797,8 +838,11 @@
       <c r="F11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -817,8 +861,11 @@
       <c r="F12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -837,8 +884,11 @@
       <c r="F13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -857,8 +907,11 @@
       <c r="F14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -877,8 +930,11 @@
       <c r="F15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -897,8 +953,11 @@
       <c r="F16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -917,8 +976,11 @@
       <c r="F17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -937,8 +999,11 @@
       <c r="F18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -957,8 +1022,11 @@
       <c r="F19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1045,11 @@
       <c r="F20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -997,8 +1068,11 @@
       <c r="F21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1017,8 +1091,11 @@
       <c r="F22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1037,8 +1114,11 @@
       <c r="F23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1057,8 +1137,11 @@
       <c r="F24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1077,8 +1160,11 @@
       <c r="F25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1097,8 +1183,11 @@
       <c r="F26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1117,8 +1206,11 @@
       <c r="F27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1137,8 +1229,11 @@
       <c r="F28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1156,6 +1251,9 @@
       </c>
       <c r="F29" t="s">
         <v>55</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/public-transportation/jakarta-train/data/rekap.xlsx
+++ b/public-transportation/jakarta-train/data/rekap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tombayu Hidayat\Documents\Coding\personal-project\public-transportation\jakarta-train\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D86A89-818F-4482-B739-9046CB199607}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55FFD3D-ED08-429B-8D0C-3293E022960B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00259625-A11C-4131-A491-869179BC3BC0}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12624" xr2:uid="{00259625-A11C-4131-A491-869179BC3BC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>Cibubur Line</t>
   </si>
   <si>
-    <t>Kelapa Gading - JIS</t>
-  </si>
-  <si>
     <t>Velodrome - Manggarai</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>SSC</t>
+  </si>
+  <si>
+    <t>Pegangsaan Dua - JIS</t>
   </si>
 </sst>
 </file>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF44142-EF6D-4D5F-8C7A-3246BC1A9677}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -606,10 +606,10 @@
         <v>32</v>
       </c>
       <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
         <v>61</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -629,10 +629,10 @@
         <v>2011</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -652,10 +652,10 @@
         <v>2017</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -675,10 +675,10 @@
         <v>2011</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -698,10 +698,10 @@
         <v>2011</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -721,10 +721,10 @@
         <v>2015</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -744,10 +744,10 @@
         <v>2011</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -767,10 +767,10 @@
         <v>2013</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -790,10 +790,10 @@
         <v>2017</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -813,10 +813,10 @@
         <v>2011</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -836,10 +836,10 @@
         <v>2011</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -859,10 +859,10 @@
         <v>2022</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -882,10 +882,10 @@
         <v>2022</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -905,10 +905,10 @@
         <v>2022</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -916,7 +916,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -928,10 +928,10 @@
         <v>2025</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -939,7 +939,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>2025</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -962,7 +962,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -974,10 +974,10 @@
         <v>2028</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -985,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>29</v>
@@ -997,10 +997,10 @@
         <v>2028</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1020,10 +1020,10 @@
         <v>2019</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1037,16 +1037,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E20">
         <v>2025</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1060,16 +1060,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21">
         <v>2028</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1083,16 +1083,16 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>2028</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1112,10 +1112,10 @@
         <v>2019</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1135,10 +1135,10 @@
         <v>2025</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1158,10 +1158,10 @@
         <v>2027</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1181,10 +1181,10 @@
         <v>2028</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1204,10 +1204,10 @@
         <v>2030</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1227,10 +1227,10 @@
         <v>2017</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1250,10 +1250,10 @@
         <v>2019</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/public-transportation/jakarta-train/data/rekap.xlsx
+++ b/public-transportation/jakarta-train/data/rekap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tombayu Hidayat\Documents\Coding\personal-project\public-transportation\jakarta-train\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55FFD3D-ED08-429B-8D0C-3293E022960B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D21A9D8-D6E9-4570-B9F7-9776F7F2C26A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12624" xr2:uid="{00259625-A11C-4131-A491-869179BC3BC0}"/>
+    <workbookView xWindow="8352" yWindow="492" windowWidth="13824" windowHeight="7068" xr2:uid="{00259625-A11C-4131-A491-869179BC3BC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="66">
   <si>
     <t>2A</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Pegangsaan Dua - JIS</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -574,22 +577,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF44142-EF6D-4D5F-8C7A-3246BC1A9677}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="26.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -612,7 +615,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -634,8 +637,11 @@
       <c r="G2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -657,8 +663,11 @@
       <c r="G3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -680,8 +689,11 @@
       <c r="G4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -703,8 +715,11 @@
       <c r="G5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -726,8 +741,11 @@
       <c r="G6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -749,8 +767,11 @@
       <c r="G7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -772,8 +793,11 @@
       <c r="G8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -795,8 +819,11 @@
       <c r="G9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -819,7 +846,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -842,7 +869,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -865,7 +892,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -888,7 +915,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -911,7 +938,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -934,7 +961,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -957,7 +984,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -980,7 +1007,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1003,7 +1030,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1053,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1049,7 +1076,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1072,7 +1099,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1095,7 +1122,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1118,7 +1145,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1141,7 +1168,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1164,7 +1191,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1187,7 +1214,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1210,7 +1237,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1233,7 +1260,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
